--- a/Backtest Holy/RMSE.xlsx
+++ b/Backtest Holy/RMSE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Fold</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>TFT</t>
@@ -452,12 +457,34 @@
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>GRU</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>TFTnp</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LSTMnp</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>TCNnp</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>GRUnp</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>0.09466264000000001</v>
@@ -471,10 +498,24 @@
       <c r="E2" t="n">
         <v>0.09610122</v>
       </c>
+      <c r="F2" t="n">
+        <v>0.09693333</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.09634848</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.09696479</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.09637417</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>0.06359993</v>
@@ -488,10 +529,24 @@
       <c r="E3" t="n">
         <v>0.06253947999999999</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.06247277</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.06134101</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.062306013</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.061903726</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>0.029816974</v>
@@ -505,10 +560,24 @@
       <c r="E4" t="n">
         <v>0.029287929</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.029521933</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.029558713</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.030528413</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.029855112</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>0.023631228</v>
@@ -521,6 +590,18 @@
       </c>
       <c r="E5" t="n">
         <v>0.0237877</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0249583</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.023114929</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.023516906</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.023337286</v>
       </c>
     </row>
     <row r="6">
@@ -541,6 +622,18 @@
       <c r="E6" t="n">
         <v>0.05292908225</v>
       </c>
+      <c r="F6" t="n">
+        <v>0.05347158325</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.052590783</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0533290305</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0528675735</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -559,6 +652,18 @@
       </c>
       <c r="E7" t="n">
         <v>0.001121439169749594</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.001118845954087189</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.001130201578936518</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.001131098882510651</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.001125362418379569</v>
       </c>
     </row>
   </sheetData>
